--- a/VNCCodeCommandConsole - Internals.xlsx
+++ b/VNCCodeCommandConsole - Internals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VNC\Git\chrhodes\VNCCodeCommandConsole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880D835-C628-4EAA-8C90-F96807280CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F367B7-333E-4FA9-9DD5-6F4443027D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-61860" yWindow="1310" windowWidth="21110" windowHeight="19260" xr2:uid="{6A683458-DBD0-4BC1-A547-826444CA9DA5}"/>
   </bookViews>
